--- a/SampleLabReport.xlsx
+++ b/SampleLabReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfand\Downloads\PhysicsLabReportsExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D702B551-B88A-4C4B-BFDA-A32BB37967FE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E716B8CB-AC31-4107-B258-7E53909E5FC7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="9" r:id="rId1"/>
@@ -218,6 +218,15 @@
     <t>HOW THE LAB REPORT WILL BE GRADED</t>
   </si>
   <si>
+    <t>Robinson Crusoe</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Lorenzo Hernandez</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -260,6 +269,28 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> A point will be taken out for each incorrect calculation made, until up the counter reaches zero.
+                                                        ...... ETC .....
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>THE NUMBER OF INDICATORS AS WELL AS THE MAX POINTS COULD BE CHANGED ACCORDING TO THE INSTRUCTOR'S NEEDS. PLEASE, DO NOT LEAVE ANY EMPTY ROW(S) IN BETWEEN.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -271,159 +302,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3.</t>
+      <t/>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> A point will be taken off for each incorrect unit until up the counter reaches zero.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The same as for item 3.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The graph(s) must be self explanatory, it must contain axes labels, all the available plotting space should be used, a proper scale must be set for each axis, etc.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The same as for items 3 &amp; 4.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> All the teams are going to do the same lab in a given lab session. However, the conclusions must be particular to your lab report. If you made a general statement, you should show how it applies to your case. This is the most important section of the report because it shows how much the students learned.  Make sure you let the instructor know that.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> This indicator accounts for proper Physics language used and a contradiction-free report. If a statement is made against any of the well known Physics Laws, that will be accounted for in this section.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The students should use Excel's formulas and functions whenever possible, that makes any mistake traceable. This practice has more advantages than disadvantages. A point will be taken out for each missing opportunity until up the counter reaches zero.</t>
-    </r>
-  </si>
-  <si>
-    <t>Robinson Crusoe</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>Lorenzo Hernandez</t>
   </si>
 </sst>
 </file>
@@ -789,6 +669,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -797,18 +689,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1369,7 +1249,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1379,32 +1259,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
       <c r="O2" s="34"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="35"/>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
       <c r="I4" s="36" t="s">
         <v>30</v>
       </c>
@@ -1412,18 +1292,18 @@
       <c r="L4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
       <c r="O4" s="38"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="39">
         <v>1</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="39"/>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
@@ -1432,10 +1312,10 @@
       <c r="B6" s="40">
         <v>2</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
@@ -1447,10 +1327,10 @@
       <c r="B7" s="42">
         <v>3</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="43"/>
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
@@ -1462,148 +1342,148 @@
       <c r="O7" s="27"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="O8" s="27"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
       <c r="O9" s="27"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
       <c r="O10" s="27"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
       <c r="O11" s="27"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
       <c r="O12" s="27"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="27"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
       <c r="O14" s="22"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="41"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
       <c r="O16" s="27"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1624,259 +1504,259 @@
       <c r="O17" s="27"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
       <c r="O18" s="27"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="27"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
       <c r="O20" s="27"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
       <c r="O21" s="27"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
       <c r="O22" s="27"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
       <c r="O23" s="27"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
       <c r="O24" s="27"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
       <c r="O25" s="27"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
       <c r="O26" s="27"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
       <c r="O27" s="27"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
       <c r="O28" s="27"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
       <c r="O29" s="27"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
     </row>
     <row r="31" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
       <c r="O31" s="45"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
       <c r="O32" s="45"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -1913,17 +1793,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N16"/>
+    <mergeCell ref="A18:N18"/>
+    <mergeCell ref="A19:N32"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A10:N16"/>
-    <mergeCell ref="A18:N18"/>
-    <mergeCell ref="A19:N32"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:I7 I4:J4" xr:uid="{59A3CB9A-59D1-4904-80F8-523A6785DACD}">
@@ -3611,7 +3491,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:N21"/>
     </sheetView>
   </sheetViews>
@@ -3673,122 +3553,122 @@
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
       <c r="O4" s="27"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
       <c r="O5" s="27"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
       <c r="O6" s="27"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
       <c r="O7" s="27"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
       <c r="O8" s="27"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
       <c r="O9" s="27"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
       <c r="O10" s="27"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -4112,488 +3992,488 @@
       <c r="P1" s="33"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
       <c r="O2" s="27"/>
       <c r="P2" s="27"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
       <c r="O6" s="27"/>
       <c r="P6" s="27"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
       <c r="O14" s="27"/>
       <c r="P14" s="27"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4614,8 +4494,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4659,7 +4539,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="71" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F2" s="71"/>
       <c r="G2" s="71"/>
@@ -5061,7 +4941,6 @@
       <c r="K34" s="71"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pBo6Y8uaVcA2bpjFhiENZY3dRybQ/+mHyZ1NoVWe4lnmjq58hV79JZM7/I3bzOPm9/FU0PCMSYzKesm0v8p1aw==" saltValue="bZPFikz6nFgCmKwA5lVrrA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="E2:K34"/>
@@ -5086,17 +4965,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
